--- a/summary_analysis.xlsx
+++ b/summary_analysis.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.6538461538461539</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
   </sheetData>
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
   </sheetData>
